--- a/data/val_result.xlsx
+++ b/data/val_result.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J139"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,28 +406,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>33.5</v>
+        <v>29.6</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>21.26</v>
+        <v>23.04</v>
       </c>
       <c r="J2">
-        <v>0.6321998834609985</v>
+        <v>1.192092895507812e-07</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -435,28 +435,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C3">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.1</v>
+        <v>21.9</v>
       </c>
       <c r="F3">
-        <v>9.300000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>17.88</v>
+        <v>25.54</v>
       </c>
       <c r="J3">
-        <v>0.5526329874992371</v>
+        <v>0.4775777757167816</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -464,28 +464,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>29.1</v>
+        <v>30.7</v>
       </c>
       <c r="F4">
-        <v>18.6</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>24.64</v>
+        <v>22.94</v>
       </c>
       <c r="J4">
-        <v>0.5344027280807495</v>
+        <v>0.9999994039535522</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -493,28 +493,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>40.2</v>
+        <v>18.1</v>
       </c>
       <c r="F5">
-        <v>53.3</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>41.46</v>
+        <v>22.69</v>
       </c>
       <c r="J5">
-        <v>0.5301297903060913</v>
+        <v>0.0002130568027496338</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -522,28 +522,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>42</v>
+        <v>33.5</v>
       </c>
       <c r="F6">
-        <v>28.3</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>28.71</v>
+        <v>21.26</v>
       </c>
       <c r="J6">
-        <v>0.616634726524353</v>
+        <v>0.999953031539917</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -551,28 +551,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="C7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>44.7</v>
+        <v>31.1</v>
       </c>
       <c r="F7">
-        <v>30.3</v>
+        <v>20.1</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7">
-        <v>25.9</v>
+        <v>25.71</v>
       </c>
       <c r="J7">
-        <v>0.7724815607070923</v>
+        <v>0.003925919532775879</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -580,28 +580,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>38</v>
+        <v>30.2</v>
       </c>
       <c r="F8">
-        <v>23.5</v>
+        <v>16.6</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>25.51</v>
+        <v>22.45</v>
       </c>
       <c r="J8">
-        <v>0.6084203720092773</v>
+        <v>0.7331150770187378</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -609,28 +609,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C9">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>31.6</v>
+        <v>30.2</v>
       </c>
       <c r="F9">
-        <v>18.8</v>
+        <v>21.5</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>23.13</v>
+        <v>27.24</v>
       </c>
       <c r="J9">
-        <v>0.7544708847999573</v>
+        <v>0.0005900263786315918</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -638,28 +638,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>355</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>45.7</v>
+        <v>24.5</v>
       </c>
       <c r="F10">
-        <v>33.1</v>
+        <v>16.6</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>27.36</v>
+        <v>22.62</v>
       </c>
       <c r="J10">
-        <v>0.2963598668575287</v>
+        <v>0.9999983310699463</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -667,28 +667,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C11">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>32.4</v>
+        <v>38.5</v>
       </c>
       <c r="F11">
-        <v>19.6</v>
+        <v>27.3</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>24.24</v>
+        <v>28.15</v>
       </c>
       <c r="J11">
-        <v>0.680458664894104</v>
+        <v>0.9995091557502747</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -696,28 +696,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>21.4</v>
+        <v>45.7</v>
       </c>
       <c r="F12">
-        <v>15.9</v>
+        <v>33.1</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>23.2</v>
+        <v>27.36</v>
       </c>
       <c r="J12">
-        <v>0.6576935648918152</v>
+        <v>1.788139343261719e-07</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -725,28 +725,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>39.8</v>
+        <v>33.5</v>
       </c>
       <c r="F13">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>20.8</v>
+        <v>25.09</v>
       </c>
       <c r="J13">
-        <v>0.3974081873893738</v>
+        <v>0.001374810934066772</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -754,28 +754,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="C14">
         <v>63</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>27.3</v>
+        <v>21.3</v>
       </c>
       <c r="F14">
-        <v>21.3</v>
+        <v>16.2</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
-        <v>24.81</v>
+        <v>24.97</v>
       </c>
       <c r="J14">
-        <v>0.6205162405967712</v>
+        <v>0.847661018371582</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -783,28 +783,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>294</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>28.7</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>18.3</v>
+        <v>10.9</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>23.04</v>
+        <v>18.64</v>
       </c>
       <c r="J15">
-        <v>0.7239652872085571</v>
+        <v>0.3840577006340027</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -812,28 +812,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.7</v>
+        <v>33.6</v>
       </c>
       <c r="F16">
-        <v>8.5</v>
+        <v>17.8</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
-        <v>22.26</v>
+        <v>21.93</v>
       </c>
       <c r="J16">
-        <v>0.3042255043983459</v>
+        <v>0.8817836046218872</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -841,28 +841,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C17">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>25.1</v>
+        <v>20</v>
       </c>
       <c r="F17">
-        <v>18.8</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>25.82</v>
+        <v>19.39</v>
       </c>
       <c r="J17">
-        <v>0.7022227048873901</v>
+        <v>0.9999985694885254</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -870,28 +870,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>29.9</v>
+        <v>36.3</v>
       </c>
       <c r="F18">
-        <v>19.6</v>
+        <v>20.6</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>23.9</v>
+        <v>22.93</v>
       </c>
       <c r="J18">
-        <v>0.6130480766296387</v>
+        <v>0.9716366529464722</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -899,28 +899,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.1</v>
+        <v>28.2</v>
       </c>
       <c r="F19">
-        <v>22.9</v>
+        <v>13.8</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>24.16</v>
+        <v>20.47</v>
       </c>
       <c r="J19">
-        <v>0.3713716268539429</v>
+        <v>2.151727676391602e-05</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -928,28 +928,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>30.2</v>
+        <v>33.1</v>
       </c>
       <c r="F20">
-        <v>21.5</v>
+        <v>19.2</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>27.24</v>
+        <v>23.59</v>
       </c>
       <c r="J20">
-        <v>0.4689042270183563</v>
+        <v>8.860230445861816e-05</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -957,7 +957,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="C21">
         <v>56</v>
@@ -966,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>31.6</v>
+        <v>27.7</v>
       </c>
       <c r="F21">
-        <v>17.7</v>
+        <v>22.5</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>22.88</v>
+        <v>28.5</v>
       </c>
       <c r="J21">
-        <v>0.4580995738506317</v>
+        <v>0.9971867203712463</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -986,28 +986,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C22">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>19.7</v>
+        <v>22.2</v>
       </c>
       <c r="F22">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
       <c r="H22">
-        <v>26.45</v>
+        <v>25.29</v>
       </c>
       <c r="J22">
-        <v>0.6738702058792114</v>
+        <v>0.9790083169937134</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1015,28 +1015,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C23">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>27.4</v>
+        <v>34.3</v>
       </c>
       <c r="F23">
-        <v>17.3</v>
+        <v>19.1</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
-        <v>22.15</v>
+        <v>21.82</v>
       </c>
       <c r="J23">
-        <v>0.6357210874557495</v>
+        <v>0.03961607813835144</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1044,28 +1044,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="C24">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>41.7</v>
+        <v>23.9</v>
       </c>
       <c r="F24">
-        <v>25.5</v>
+        <v>10.7</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>24.69</v>
+        <v>18.7</v>
       </c>
       <c r="J24">
-        <v>0.6257471442222595</v>
+        <v>0.5459451079368591</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1073,28 +1073,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>464</v>
+        <v>178</v>
       </c>
       <c r="C25">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.7</v>
+        <v>38.4</v>
       </c>
       <c r="F25">
-        <v>16.3</v>
+        <v>25.5</v>
       </c>
       <c r="G25">
         <v>4</v>
       </c>
       <c r="H25">
-        <v>25.14</v>
+        <v>26.49</v>
       </c>
       <c r="J25">
-        <v>0.7724774479866028</v>
+        <v>0.943443775177002</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1102,28 +1102,28 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="F26">
-        <v>10.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26">
-        <v>20.54</v>
+        <v>20.67</v>
       </c>
       <c r="J26">
-        <v>0.3768807053565979</v>
+        <v>0.02354687452316284</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1131,28 +1131,28 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>29.3</v>
+        <v>11.4</v>
       </c>
       <c r="F27">
-        <v>16.3</v>
+        <v>5.7</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>21.7</v>
+        <v>16.77</v>
       </c>
       <c r="J27">
-        <v>0.5517423748970032</v>
+        <v>4.440546035766602e-06</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1160,28 +1160,28 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="C28">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>33.1</v>
+        <v>26.4</v>
       </c>
       <c r="F28">
-        <v>19.1</v>
+        <v>18.6</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>22.61</v>
+        <v>23.57</v>
       </c>
       <c r="J28">
-        <v>0.3976487219333649</v>
+        <v>0.9992378950119019</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1189,28 +1189,28 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C29">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>30.9</v>
+        <v>27.5</v>
       </c>
       <c r="F29">
-        <v>27.1</v>
+        <v>16.1</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>31.9</v>
+        <v>22.44</v>
       </c>
       <c r="J29">
-        <v>0.6257585287094116</v>
+        <v>1.788139343261719e-07</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1218,28 +1218,28 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C30">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>30.9</v>
+        <v>31.7</v>
       </c>
       <c r="F30">
-        <v>18.6</v>
+        <v>22.7</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>21.36</v>
+        <v>25.26</v>
       </c>
       <c r="J30">
-        <v>0.6047358512878418</v>
+        <v>0.9536257982254028</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1247,28 +1247,28 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>28.4</v>
+        <v>24.1</v>
       </c>
       <c r="F31">
-        <v>22.7</v>
+        <v>13.1</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>26.58</v>
+        <v>19.67</v>
       </c>
       <c r="J31">
-        <v>0.6424347758293152</v>
+        <v>8.940696716308594e-08</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1276,28 +1276,28 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>28.9</v>
+        <v>24.1</v>
       </c>
       <c r="F32">
-        <v>17.2</v>
+        <v>16.7</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>22.11</v>
+        <v>24.17</v>
       </c>
       <c r="J32">
-        <v>0.261450856924057</v>
+        <v>0.9997415542602539</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1305,28 +1305,28 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C33">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>33.6</v>
+        <v>20</v>
       </c>
       <c r="F33">
-        <v>20.1</v>
+        <v>15.6</v>
       </c>
       <c r="G33">
         <v>4</v>
       </c>
       <c r="H33">
-        <v>25.13</v>
+        <v>25.05</v>
       </c>
       <c r="J33">
-        <v>0.7217177152633667</v>
+        <v>0.9999407529830933</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1334,28 +1334,28 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C34">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>27.9</v>
+        <v>26.9</v>
       </c>
       <c r="F34">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>21.97</v>
+        <v>24.31</v>
       </c>
       <c r="J34">
-        <v>0.4487946331501007</v>
+        <v>0.002388030290603638</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1363,28 +1363,28 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="C35">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>38.4</v>
+        <v>33.9</v>
       </c>
       <c r="F35">
-        <v>25.5</v>
+        <v>21.2</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>26.49</v>
+        <v>24.33</v>
       </c>
       <c r="J35">
-        <v>0.6239508986473083</v>
+        <v>0.9632277488708496</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1392,28 +1392,28 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>25.4</v>
+        <v>13.2</v>
       </c>
       <c r="F36">
-        <v>18.3</v>
+        <v>6.4</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>22.1</v>
+        <v>18.02</v>
       </c>
       <c r="J36">
-        <v>0.3405190110206604</v>
+        <v>0.4929082691669464</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1421,28 +1421,28 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="C37">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>39.6</v>
+        <v>42.6</v>
       </c>
       <c r="F37">
-        <v>23.8</v>
+        <v>41.1</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H37">
-        <v>25.47</v>
+        <v>36.85</v>
       </c>
       <c r="J37">
-        <v>0.6655381321907043</v>
+        <v>1.192092895507812e-07</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1450,28 +1450,28 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>32.9</v>
+        <v>39.1</v>
       </c>
       <c r="F38">
-        <v>19.3</v>
+        <v>25.8</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>21.64</v>
+        <v>25.94</v>
       </c>
       <c r="J38">
-        <v>0.6742757558822632</v>
+        <v>0.9999911785125732</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1479,28 +1479,28 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="C39">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>21.2</v>
+        <v>37</v>
       </c>
       <c r="F39">
-        <v>16.9</v>
+        <v>29.9</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>23.59</v>
+        <v>29.93</v>
       </c>
       <c r="J39">
-        <v>0.5936005711555481</v>
+        <v>7.748603820800781e-07</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1508,28 +1508,28 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="C40">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>35</v>
+        <v>44.6</v>
       </c>
       <c r="F40">
-        <v>20.2</v>
+        <v>27.3</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>23.71</v>
+        <v>29.92</v>
       </c>
       <c r="J40">
-        <v>0.5951075553894043</v>
+        <v>0.9613513350486755</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1537,28 +1537,28 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C41">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>24.5</v>
+        <v>26.1</v>
       </c>
       <c r="F41">
-        <v>12</v>
+        <v>13.7</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
       <c r="H41">
-        <v>20.54</v>
+        <v>20.36</v>
       </c>
       <c r="J41">
-        <v>0.744473934173584</v>
+        <v>5.888938903808594e-05</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1566,28 +1566,28 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="C42">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>28.5</v>
+        <v>39.3</v>
       </c>
       <c r="F42">
-        <v>24.4</v>
+        <v>26.3</v>
       </c>
       <c r="G42">
         <v>4</v>
       </c>
       <c r="H42">
-        <v>25.75</v>
+        <v>26.62</v>
       </c>
       <c r="J42">
-        <v>0.6370102167129517</v>
+        <v>0.8531413078308105</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1595,28 +1595,28 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="C43">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>22</v>
+        <v>40.7</v>
       </c>
       <c r="F43">
-        <v>11.7</v>
+        <v>29.1</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H43">
-        <v>19.87</v>
+        <v>30.23</v>
       </c>
       <c r="J43">
-        <v>0.5648179054260254</v>
+        <v>0.9997154474258423</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1624,28 +1624,28 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C44">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>41.7</v>
+        <v>33.8</v>
       </c>
       <c r="F44">
-        <v>27.3</v>
+        <v>18.9</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>29.31</v>
+        <v>22.39</v>
       </c>
       <c r="J44">
-        <v>0.6759583353996277</v>
+        <v>1.311302185058594e-06</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1653,28 +1653,28 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>39.3</v>
+        <v>26.9</v>
       </c>
       <c r="F45">
-        <v>31.9</v>
+        <v>13.4</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>29.57</v>
+        <v>19.93</v>
       </c>
       <c r="J45">
-        <v>0.3062250018119812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1682,28 +1682,28 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="C46">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>30.5</v>
+        <v>26.9</v>
       </c>
       <c r="F46">
-        <v>26.4</v>
+        <v>21.2</v>
       </c>
       <c r="G46">
         <v>4</v>
       </c>
       <c r="H46">
-        <v>29.14</v>
+        <v>26.86</v>
       </c>
       <c r="J46">
-        <v>0.8068104982376099</v>
+        <v>0.0293886661529541</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1711,28 +1711,28 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="C47">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>43.7</v>
+        <v>34.4</v>
       </c>
       <c r="F47">
-        <v>28.8</v>
+        <v>18.2</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>27.83</v>
+        <v>21.75</v>
       </c>
       <c r="J47">
-        <v>0.6478222608566284</v>
+        <v>2.682209014892578e-07</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1740,7 +1740,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="C48">
         <v>58</v>
@@ -1749,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>23.9</v>
+        <v>30.6</v>
       </c>
       <c r="F48">
-        <v>10.7</v>
+        <v>24</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H48">
-        <v>18.7</v>
+        <v>28.39</v>
       </c>
       <c r="J48">
-        <v>0.5238535404205322</v>
+        <v>0.008291512727737427</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1769,28 +1769,28 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C49">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>30.3</v>
+        <v>25.5</v>
       </c>
       <c r="F49">
-        <v>15</v>
+        <v>13.8</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>20.19</v>
+        <v>23.46</v>
       </c>
       <c r="J49">
-        <v>0.5697988271713257</v>
+        <v>0.0003315210342407227</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1798,28 +1798,28 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C50">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>26.9</v>
+        <v>33.9</v>
       </c>
       <c r="F50">
-        <v>13.4</v>
+        <v>21</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>19.93</v>
+        <v>27.79</v>
       </c>
       <c r="J50">
-        <v>0.7393555641174316</v>
+        <v>0.9745190143585205</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1827,28 +1827,28 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>71</v>
+        <v>323</v>
       </c>
       <c r="C51">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>21.5</v>
+        <v>28.1</v>
       </c>
       <c r="F51">
-        <v>15.4</v>
+        <v>20.1</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51">
-        <v>25.82</v>
+        <v>24.58</v>
       </c>
       <c r="J51">
-        <v>0.396451324224472</v>
+        <v>0.9999986886978149</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1856,28 +1856,28 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C52">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>32.2</v>
+        <v>18.2</v>
       </c>
       <c r="F52">
-        <v>18.1</v>
+        <v>12.3</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>23.99</v>
+        <v>21.81</v>
       </c>
       <c r="J52">
-        <v>0.7505987286567688</v>
+        <v>1.639127731323242e-06</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -1885,28 +1885,28 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C53">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="F53">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
       <c r="H53">
-        <v>19.48</v>
+        <v>20.77</v>
       </c>
       <c r="J53">
-        <v>0.6547925472259521</v>
+        <v>0.3676223754882812</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -1914,28 +1914,28 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c r="C54">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>33.6</v>
+        <v>24.1</v>
       </c>
       <c r="F54">
-        <v>29.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>31.83</v>
+        <v>17.88</v>
       </c>
       <c r="J54">
-        <v>0.7729483246803284</v>
+        <v>0.9999926090240479</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -1943,28 +1943,28 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C55">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>27.3</v>
+        <v>21.4</v>
       </c>
       <c r="F55">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="G55">
         <v>3</v>
       </c>
       <c r="H55">
-        <v>23.42</v>
+        <v>23.2</v>
       </c>
       <c r="J55">
-        <v>0.6485773921012878</v>
+        <v>0.9715614318847656</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -1972,28 +1972,28 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C56">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>39.7</v>
+        <v>10.7</v>
       </c>
       <c r="F56">
-        <v>28.3</v>
+        <v>8.5</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H56">
-        <v>28</v>
+        <v>22.26</v>
       </c>
       <c r="J56">
-        <v>0.6002314686775208</v>
+        <v>6.854534149169922e-07</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2001,28 +2001,28 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C57">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>26.5</v>
+        <v>27.7</v>
       </c>
       <c r="F57">
-        <v>18.6</v>
+        <v>25.7</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H57">
-        <v>25.07</v>
+        <v>30.58</v>
       </c>
       <c r="J57">
-        <v>0.8212141394615173</v>
+        <v>0.8053202629089355</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2030,28 +2030,28 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>38.5</v>
+        <v>27.4</v>
       </c>
       <c r="F58">
-        <v>27.3</v>
+        <v>16.9</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58">
-        <v>28.15</v>
+        <v>23.58</v>
       </c>
       <c r="J58">
-        <v>0.7026153206825256</v>
+        <v>8.642673492431641e-07</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2059,28 +2059,28 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1050</v>
+        <v>192</v>
       </c>
       <c r="C59">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>36.4</v>
+        <v>34.9</v>
       </c>
       <c r="F59">
-        <v>25.1</v>
+        <v>24.1</v>
       </c>
       <c r="G59">
         <v>4</v>
       </c>
       <c r="H59">
-        <v>27.82</v>
+        <v>25.22</v>
       </c>
       <c r="J59">
-        <v>0.8712375164031982</v>
+        <v>0.0001060664653778076</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2088,28 +2088,28 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C60">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>35.8</v>
+        <v>33.6</v>
       </c>
       <c r="F60">
-        <v>26.1</v>
+        <v>21.4</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>27.24</v>
+        <v>22.85</v>
       </c>
       <c r="J60">
-        <v>0.5200365781784058</v>
+        <v>0.9998029470443726</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2117,28 +2117,28 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C61">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>28</v>
+        <v>41.7</v>
       </c>
       <c r="F61">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="G61">
         <v>4</v>
       </c>
       <c r="H61">
-        <v>26.99</v>
+        <v>25.28</v>
       </c>
       <c r="J61">
-        <v>0.3536121845245361</v>
+        <v>0.9998530149459839</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2146,28 +2146,28 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C62">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>33.8</v>
+        <v>28.9</v>
       </c>
       <c r="F62">
-        <v>19.2</v>
+        <v>26.6</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H62">
-        <v>23.7</v>
+        <v>29.04</v>
       </c>
       <c r="J62">
-        <v>0.5975041389465332</v>
+        <v>0.9999583959579468</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2175,28 +2175,28 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C63">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>37.5</v>
+        <v>39.6</v>
       </c>
       <c r="F63">
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H63">
-        <v>22.21</v>
+        <v>26.55</v>
       </c>
       <c r="J63">
-        <v>0.6683096885681152</v>
+        <v>0.9962683916091919</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2204,28 +2204,28 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="C64">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>26.7</v>
+        <v>19.7</v>
       </c>
       <c r="F64">
-        <v>23.4</v>
+        <v>9</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>28.51</v>
+        <v>17.54</v>
       </c>
       <c r="J64">
-        <v>0.4582386910915375</v>
+        <v>3.278255462646484e-07</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2233,28 +2233,28 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="C65">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>33.9</v>
+        <v>30.4</v>
       </c>
       <c r="F65">
-        <v>26.3</v>
+        <v>15.7</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>28.56</v>
+        <v>20.61</v>
       </c>
       <c r="J65">
-        <v>0.5164884328842163</v>
+        <v>0.9999202489852905</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2262,28 +2262,28 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="C66">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>41.2</v>
+        <v>36.3</v>
       </c>
       <c r="F66">
-        <v>24.2</v>
+        <v>34.8</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H66">
-        <v>23.47</v>
+        <v>32.51</v>
       </c>
       <c r="J66">
-        <v>0.6406667232513428</v>
+        <v>0.03022879362106323</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2291,28 +2291,28 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="C67">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>31.2</v>
+        <v>23.6</v>
       </c>
       <c r="F67">
-        <v>15.3</v>
+        <v>16.3</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>19.91</v>
+        <v>23.49</v>
       </c>
       <c r="J67">
-        <v>0.5715391039848328</v>
+        <v>7.152557373046875e-07</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2320,28 +2320,28 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="C68">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>32.6</v>
+        <v>25.9</v>
       </c>
       <c r="F68">
-        <v>20.9</v>
+        <v>16</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68">
-        <v>23.46</v>
+        <v>21.77</v>
       </c>
       <c r="J68">
-        <v>0.5122186541557312</v>
+        <v>0.9930785894393921</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2349,28 +2349,28 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C69">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>33.2</v>
+        <v>35.4</v>
       </c>
       <c r="F69">
-        <v>15.3</v>
+        <v>23.4</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>21.39</v>
+        <v>24.31</v>
       </c>
       <c r="J69">
-        <v>0.7763433456420898</v>
+        <v>0.9999033212661743</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2378,28 +2378,28 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="C70">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>20.9</v>
+        <v>36.3</v>
       </c>
       <c r="F70">
-        <v>14.5</v>
+        <v>21.1</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>24.93</v>
+        <v>25.13</v>
       </c>
       <c r="J70">
-        <v>0.7223348617553711</v>
+        <v>0.0004571378231048584</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2407,28 +2407,28 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>74</v>
+        <v>1199</v>
       </c>
       <c r="C71">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>31.2</v>
+        <v>25.7</v>
       </c>
       <c r="F71">
-        <v>16.8</v>
+        <v>20.8</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H71">
-        <v>21.8</v>
+        <v>26.43</v>
       </c>
       <c r="J71">
-        <v>0.5730710625648499</v>
+        <v>0.1430903077125549</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2436,28 +2436,28 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C72">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>25</v>
+        <v>40.1</v>
       </c>
       <c r="F72">
-        <v>10.9</v>
+        <v>22.5</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H72">
-        <v>18.64</v>
+        <v>25.15</v>
       </c>
       <c r="J72">
-        <v>0.4578871130943298</v>
+        <v>0.999876856803894</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2465,28 +2465,28 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="C73">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>33.9</v>
+        <v>32.9</v>
       </c>
       <c r="F73">
-        <v>21.2</v>
+        <v>19.7</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73">
-        <v>24.33</v>
+        <v>23.62</v>
       </c>
       <c r="J73">
-        <v>0.4221016764640808</v>
+        <v>0.9088956117630005</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2494,28 +2494,28 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C74">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>20</v>
+        <v>19.1</v>
       </c>
       <c r="F74">
-        <v>15.6</v>
+        <v>8.1</v>
       </c>
       <c r="G74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>25.05</v>
+        <v>17.98</v>
       </c>
       <c r="J74">
-        <v>0.7794997692108154</v>
+        <v>0.9887934923171997</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2523,28 +2523,28 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C75">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>25.5</v>
+        <v>33.9</v>
       </c>
       <c r="F75">
-        <v>13.4</v>
+        <v>26.3</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H75">
-        <v>19.78</v>
+        <v>28.56</v>
       </c>
       <c r="J75">
-        <v>0.3153310120105743</v>
+        <v>0.3764366507530212</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2552,28 +2552,28 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="C76">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>35.9</v>
+        <v>23.6</v>
       </c>
       <c r="F76">
-        <v>19</v>
+        <v>21.1</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76">
-        <v>23.14</v>
+        <v>25.16</v>
       </c>
       <c r="J76">
-        <v>0.6919532418251038</v>
+        <v>0.9867813587188721</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2581,28 +2581,28 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="C77">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>32.6</v>
+        <v>22.9</v>
       </c>
       <c r="F77">
-        <v>19.7</v>
+        <v>11.1</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
       <c r="H77">
-        <v>22.89</v>
+        <v>18.77</v>
       </c>
       <c r="J77">
-        <v>0.5859619379043579</v>
+        <v>0.5845428109169006</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2610,28 +2610,28 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="C78">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>36.7</v>
+        <v>30.9</v>
       </c>
       <c r="F78">
-        <v>22.9</v>
+        <v>27.1</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H78">
-        <v>23.6</v>
+        <v>31.9</v>
       </c>
       <c r="J78">
-        <v>0.7083118557929993</v>
+        <v>0.9943615198135376</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2639,28 +2639,28 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C79">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>28.2</v>
+        <v>33.1</v>
       </c>
       <c r="F79">
-        <v>13.3</v>
+        <v>18.7</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H79">
-        <v>20.43</v>
+        <v>23.72</v>
       </c>
       <c r="J79">
-        <v>0.6362574100494385</v>
+        <v>0.1073900163173676</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2668,28 +2668,28 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="C80">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>30.8</v>
+        <v>39.6</v>
       </c>
       <c r="F80">
-        <v>22.9</v>
+        <v>23.8</v>
       </c>
       <c r="G80">
         <v>4</v>
       </c>
       <c r="H80">
-        <v>26.04</v>
+        <v>25.47</v>
       </c>
       <c r="J80">
-        <v>0.7903419733047485</v>
+        <v>0.0009071230888366699</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2697,28 +2697,28 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C81">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>37.7</v>
+        <v>33.3</v>
       </c>
       <c r="F81">
-        <v>24.6</v>
+        <v>16.6</v>
       </c>
       <c r="G81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>27.67</v>
+        <v>21.47</v>
       </c>
       <c r="J81">
-        <v>0.7044377326965332</v>
+        <v>0.9996311664581299</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2726,28 +2726,28 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C82">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>43</v>
+        <v>35.6</v>
       </c>
       <c r="F82">
-        <v>37.8</v>
+        <v>19.8</v>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>31.71</v>
+        <v>21.19</v>
       </c>
       <c r="J82">
-        <v>0.6290633678436279</v>
+        <v>0.9934480786323547</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -2755,28 +2755,28 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="C83">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>50.5</v>
+        <v>33.5</v>
       </c>
       <c r="F83">
-        <v>46.9</v>
+        <v>27.2</v>
       </c>
       <c r="G83">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H83">
-        <v>38.86</v>
+        <v>28.47</v>
       </c>
       <c r="J83">
-        <v>0.5505865812301636</v>
+        <v>0.9516812562942505</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2787,25 +2787,25 @@
         <v>56</v>
       </c>
       <c r="C84">
+        <v>24</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
         <v>28</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>29.5</v>
-      </c>
       <c r="F84">
-        <v>17.4</v>
+        <v>14.3</v>
       </c>
       <c r="G84">
         <v>2</v>
       </c>
       <c r="H84">
-        <v>22.22</v>
+        <v>18.98</v>
       </c>
       <c r="J84">
-        <v>0.2800038456916809</v>
+        <v>1.788139343261719e-07</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -2813,28 +2813,28 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>307</v>
+        <v>82</v>
       </c>
       <c r="C85">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>39.2</v>
+        <v>26.3</v>
       </c>
       <c r="F85">
-        <v>24.5</v>
+        <v>13.9</v>
       </c>
       <c r="G85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>28.54</v>
+        <v>19.89</v>
       </c>
       <c r="J85">
-        <v>0.6951528191566467</v>
+        <v>8.642673492431641e-07</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2842,28 +2842,28 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="C86">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>25.5</v>
+        <v>33.8</v>
       </c>
       <c r="F86">
-        <v>16.1</v>
+        <v>22.2</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H86">
-        <v>22.54</v>
+        <v>26.97</v>
       </c>
       <c r="J86">
-        <v>0.5966052412986755</v>
+        <v>1.192092895507812e-07</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -2871,28 +2871,28 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C87">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>33.4</v>
+        <v>29.9</v>
       </c>
       <c r="F87">
-        <v>19.8</v>
+        <v>18.5</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87">
-        <v>23.1</v>
+        <v>22.95</v>
       </c>
       <c r="J87">
-        <v>0.4636366069316864</v>
+        <v>0.999999463558197</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2900,28 +2900,28 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="C88">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="F88">
-        <v>20.7</v>
+        <v>16.3</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88">
-        <v>25.37</v>
+        <v>23.17</v>
       </c>
       <c r="J88">
-        <v>0.4974863827228546</v>
+        <v>0.9991068840026855</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -2929,28 +2929,28 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C89">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>16.7</v>
+        <v>27.4</v>
       </c>
       <c r="F89">
-        <v>11.2</v>
+        <v>13.4</v>
       </c>
       <c r="G89">
         <v>2</v>
       </c>
       <c r="H89">
-        <v>21.44</v>
+        <v>20.58</v>
       </c>
       <c r="J89">
-        <v>0.362968385219574</v>
+        <v>0.0002760887145996094</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -2958,28 +2958,28 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C90">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>32.8</v>
+        <v>27.3</v>
       </c>
       <c r="F90">
-        <v>18.9</v>
+        <v>13</v>
       </c>
       <c r="G90">
         <v>2</v>
       </c>
       <c r="H90">
-        <v>22.69</v>
+        <v>18.96</v>
       </c>
       <c r="J90">
-        <v>0.3477732837200165</v>
+        <v>1.358985900878906e-05</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -2987,28 +2987,28 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C91">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>25.6</v>
+        <v>38.1</v>
       </c>
       <c r="F91">
-        <v>11.1</v>
+        <v>20.9</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91">
-        <v>16.18</v>
+        <v>21.4</v>
       </c>
       <c r="J91">
-        <v>0.5079277753829956</v>
+        <v>0.9712669253349304</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3016,28 +3016,28 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C92">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F92">
-        <v>14.3</v>
+        <v>28.4</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H92">
-        <v>18.98</v>
+        <v>31</v>
       </c>
       <c r="J92">
-        <v>0.2676172852516174</v>
+        <v>0.9992449879646301</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3045,28 +3045,28 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="C93">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>28.3</v>
+        <v>39.3</v>
       </c>
       <c r="F93">
-        <v>22.2</v>
+        <v>21.6</v>
       </c>
       <c r="G93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H93">
-        <v>26.2</v>
+        <v>22.7</v>
       </c>
       <c r="J93">
-        <v>0.3834810554981232</v>
+        <v>0.9747949838638306</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3074,28 +3074,28 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C94">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>31</v>
+        <v>27.1</v>
       </c>
       <c r="F94">
-        <v>18.5</v>
+        <v>13.7</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>23.82</v>
+        <v>20.57</v>
       </c>
       <c r="J94">
-        <v>0.7709333896636963</v>
+        <v>0.8756352663040161</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3103,28 +3103,28 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c r="C95">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>25.9</v>
+        <v>32.6</v>
       </c>
       <c r="F95">
-        <v>19.4</v>
+        <v>30</v>
       </c>
       <c r="G95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H95">
-        <v>26.43</v>
+        <v>32.44</v>
       </c>
       <c r="J95">
-        <v>0.6481146812438965</v>
+        <v>0.0001854896545410156</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3132,28 +3132,28 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="C96">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>34.7</v>
+        <v>26.4</v>
       </c>
       <c r="F96">
-        <v>15.8</v>
+        <v>21.5</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H96">
-        <v>20.23</v>
+        <v>25.49</v>
       </c>
       <c r="J96">
-        <v>0.771799623966217</v>
+        <v>0.9997859001159668</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3161,28 +3161,28 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C97">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>21.5</v>
+        <v>19.7</v>
       </c>
       <c r="F97">
-        <v>14.9</v>
+        <v>17.5</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H97">
-        <v>23.22</v>
+        <v>26.45</v>
       </c>
       <c r="J97">
-        <v>0.5786448121070862</v>
+        <v>0.03475511074066162</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3190,28 +3190,28 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C98">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>42</v>
+        <v>32.5</v>
       </c>
       <c r="F98">
-        <v>31</v>
+        <v>17.1</v>
       </c>
       <c r="G98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H98">
-        <v>28.05</v>
+        <v>22.04</v>
       </c>
       <c r="J98">
-        <v>0.5913585424423218</v>
+        <v>0.9999977350234985</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3219,28 +3219,28 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C99">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99">
-        <v>18.6</v>
+        <v>24.5</v>
       </c>
       <c r="F99">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="G99">
         <v>2</v>
       </c>
       <c r="H99">
-        <v>21.58</v>
+        <v>20.54</v>
       </c>
       <c r="J99">
-        <v>0.6145223379135132</v>
+        <v>0.9999995827674866</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3248,28 +3248,28 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C100">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>32.7</v>
+        <v>19.7</v>
       </c>
       <c r="F100">
-        <v>21.6</v>
+        <v>11.6</v>
       </c>
       <c r="G100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H100">
-        <v>25.11</v>
+        <v>20.98</v>
       </c>
       <c r="J100">
-        <v>0.7530510425567627</v>
+        <v>0.05380013585090637</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3277,28 +3277,28 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C101">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>39.3</v>
+        <v>33.1</v>
       </c>
       <c r="F101">
-        <v>21.6</v>
+        <v>19.1</v>
       </c>
       <c r="G101">
         <v>2</v>
       </c>
       <c r="H101">
-        <v>22.7</v>
+        <v>22.61</v>
       </c>
       <c r="J101">
-        <v>0.5364475250244141</v>
+        <v>0.7652688026428223</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3306,28 +3306,28 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C102">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>30.3</v>
+        <v>37</v>
       </c>
       <c r="F102">
-        <v>20.7</v>
+        <v>22.1</v>
       </c>
       <c r="G102">
         <v>3</v>
       </c>
       <c r="H102">
-        <v>23.38</v>
+        <v>24.77</v>
       </c>
       <c r="J102">
-        <v>0.5726422071456909</v>
+        <v>0.07983788847923279</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3335,28 +3335,28 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="C103">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>33.1</v>
+        <v>21.9</v>
       </c>
       <c r="F103">
-        <v>17.4</v>
+        <v>11.4</v>
       </c>
       <c r="G103">
         <v>2</v>
       </c>
       <c r="H103">
-        <v>19.31</v>
+        <v>20.78</v>
       </c>
       <c r="J103">
-        <v>0.4935849905014038</v>
+        <v>0.001613527536392212</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3364,28 +3364,28 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C104">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>35.5</v>
+        <v>36.2</v>
       </c>
       <c r="F104">
-        <v>27.8</v>
+        <v>22.4</v>
       </c>
       <c r="G104">
         <v>4</v>
       </c>
       <c r="H104">
-        <v>25.63</v>
+        <v>26.13</v>
       </c>
       <c r="J104">
-        <v>0.3241541683673859</v>
+        <v>0.98332679271698</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3393,28 +3393,28 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="C105">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>31.3</v>
+        <v>30.8</v>
       </c>
       <c r="F105">
-        <v>16.7</v>
+        <v>22.9</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H105">
-        <v>22.01</v>
+        <v>26.04</v>
       </c>
       <c r="J105">
-        <v>0.6886386871337891</v>
+        <v>0.8281722068786621</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3422,28 +3422,28 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C106">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>31.4</v>
+        <v>31.1</v>
       </c>
       <c r="F106">
-        <v>16.5</v>
+        <v>17.3</v>
       </c>
       <c r="G106">
         <v>2</v>
       </c>
       <c r="H106">
-        <v>21.77</v>
+        <v>21.99</v>
       </c>
       <c r="J106">
-        <v>0.4861302971839905</v>
+        <v>0.9988081455230713</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3451,28 +3451,28 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C107">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>33.8</v>
+        <v>21.7</v>
       </c>
       <c r="F107">
-        <v>22.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H107">
-        <v>26.97</v>
+        <v>19.57</v>
       </c>
       <c r="J107">
-        <v>0.326909065246582</v>
+        <v>0.9999997615814209</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3480,28 +3480,28 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="C108">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>38.4</v>
+        <v>23.5</v>
       </c>
       <c r="F108">
-        <v>27.1</v>
+        <v>16.4</v>
       </c>
       <c r="G108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H108">
-        <v>29.6</v>
+        <v>23.68</v>
       </c>
       <c r="J108">
-        <v>0.7315036058425903</v>
+        <v>0.5456774830818176</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3509,28 +3509,28 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C109">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>39.4</v>
+        <v>22.4</v>
       </c>
       <c r="F109">
-        <v>25.6</v>
+        <v>17</v>
       </c>
       <c r="G109">
         <v>4</v>
       </c>
       <c r="H109">
-        <v>28.67</v>
+        <v>25.02</v>
       </c>
       <c r="J109">
-        <v>0.7140779495239258</v>
+        <v>0.000130385160446167</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3538,28 +3538,28 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="C110">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>24.9</v>
+        <v>28.3</v>
       </c>
       <c r="F110">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H110">
-        <v>24.35</v>
+        <v>20.87</v>
       </c>
       <c r="J110">
-        <v>0.6279127597808838</v>
+        <v>0.001733481884002686</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3567,28 +3567,28 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="C111">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>31.3</v>
+        <v>30.3</v>
       </c>
       <c r="F111">
-        <v>28.8</v>
+        <v>20.7</v>
       </c>
       <c r="G111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H111">
-        <v>31.58</v>
+        <v>23.38</v>
       </c>
       <c r="J111">
-        <v>0.7261483669281006</v>
+        <v>0.9902147650718689</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3596,28 +3596,28 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>161</v>
+        <v>389</v>
       </c>
       <c r="C112">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>22.4</v>
+        <v>28.3</v>
       </c>
       <c r="F112">
-        <v>17</v>
+        <v>22.3</v>
       </c>
       <c r="G112">
         <v>4</v>
       </c>
       <c r="H112">
-        <v>25.02</v>
+        <v>25.96</v>
       </c>
       <c r="J112">
-        <v>0.5035965442657471</v>
+        <v>0.9999986290931702</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -3625,28 +3625,28 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="C113">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>30.7</v>
+        <v>35.3</v>
       </c>
       <c r="F113">
-        <v>16.6</v>
+        <v>20.6</v>
       </c>
       <c r="G113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H113">
-        <v>24.22</v>
+        <v>25.82</v>
       </c>
       <c r="J113">
-        <v>0.6817600727081299</v>
+        <v>0.9915724396705627</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -3654,28 +3654,28 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="C114">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>34.3</v>
+        <v>20.3</v>
       </c>
       <c r="F114">
-        <v>19.1</v>
+        <v>11.7</v>
       </c>
       <c r="G114">
         <v>2</v>
       </c>
       <c r="H114">
-        <v>21.82</v>
+        <v>20.51</v>
       </c>
       <c r="J114">
-        <v>0.4468853771686554</v>
+        <v>0.004386007785797119</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -3683,28 +3683,28 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C115">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>39.3</v>
+        <v>31.3</v>
       </c>
       <c r="F115">
-        <v>26.3</v>
+        <v>16.7</v>
       </c>
       <c r="G115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H115">
-        <v>26.62</v>
+        <v>22.01</v>
       </c>
       <c r="J115">
-        <v>0.5836774706840515</v>
+        <v>0.9999949932098389</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -3712,28 +3712,28 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C116">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>23.1</v>
+        <v>27.3</v>
       </c>
       <c r="F116">
-        <v>15.4</v>
+        <v>21.3</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H116">
-        <v>22.43</v>
+        <v>24.81</v>
       </c>
       <c r="J116">
-        <v>0.3043353855609894</v>
+        <v>0.9481774568557739</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -3741,28 +3741,28 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="C117">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>29.2</v>
+        <v>25.6</v>
       </c>
       <c r="F117">
-        <v>20.4</v>
+        <v>18.8</v>
       </c>
       <c r="G117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H117">
-        <v>24.34</v>
+        <v>25.85</v>
       </c>
       <c r="J117">
-        <v>0.7876613736152649</v>
+        <v>0.9214500188827515</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -3770,28 +3770,28 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C118">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>22.6</v>
+        <v>34.6</v>
       </c>
       <c r="F118">
-        <v>10.7</v>
+        <v>21.9</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>16.36</v>
+        <v>24.07</v>
       </c>
       <c r="J118">
-        <v>0.3318154811859131</v>
+        <v>0.01130151748657227</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -3799,28 +3799,28 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="C119">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>24.4</v>
+        <v>33.9</v>
       </c>
       <c r="F119">
-        <v>15.1</v>
+        <v>19.9</v>
       </c>
       <c r="G119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H119">
-        <v>21.67</v>
+        <v>23.07</v>
       </c>
       <c r="J119">
-        <v>0.74079430103302</v>
+        <v>0.699764609336853</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -3828,28 +3828,28 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C120">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>31.3</v>
+        <v>27.9</v>
       </c>
       <c r="F120">
-        <v>18.4</v>
+        <v>22.6</v>
       </c>
       <c r="G120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H120">
-        <v>23.1</v>
+        <v>27.25</v>
       </c>
       <c r="J120">
-        <v>0.5258937478065491</v>
+        <v>0.9993427991867065</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -3857,28 +3857,28 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="C121">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>24.5</v>
+        <v>30.5</v>
       </c>
       <c r="F121">
-        <v>15.1</v>
+        <v>26.4</v>
       </c>
       <c r="G121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H121">
-        <v>23.74</v>
+        <v>29.14</v>
       </c>
       <c r="J121">
-        <v>0.6672345995903015</v>
+        <v>0.906974196434021</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -3886,28 +3886,28 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="C122">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>26.1</v>
+        <v>28.2</v>
       </c>
       <c r="F122">
-        <v>13.7</v>
+        <v>19.8</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H122">
-        <v>20.36</v>
+        <v>24.71</v>
       </c>
       <c r="J122">
-        <v>0.3036154806613922</v>
+        <v>0.9998301267623901</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -3915,28 +3915,28 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C123">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123">
-        <v>30.3</v>
+        <v>31.1</v>
       </c>
       <c r="F123">
-        <v>24.5</v>
+        <v>15.4</v>
       </c>
       <c r="G123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H123">
-        <v>27.5</v>
+        <v>20.88</v>
       </c>
       <c r="J123">
-        <v>0.5644420981407166</v>
+        <v>0.9999499320983887</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -3944,28 +3944,28 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>296</v>
+        <v>862</v>
       </c>
       <c r="C124">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>32.2</v>
+        <v>27.7</v>
       </c>
       <c r="F124">
-        <v>38.3</v>
+        <v>25</v>
       </c>
       <c r="G124">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H124">
-        <v>36.99</v>
+        <v>29.19</v>
       </c>
       <c r="J124">
-        <v>0.5513735413551331</v>
+        <v>0.01615379750728607</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -3973,28 +3973,28 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C125">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="F125">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H125">
-        <v>23.51</v>
+        <v>19.3</v>
       </c>
       <c r="J125">
-        <v>0.5153205990791321</v>
+        <v>0.002603031694889069</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4002,405 +4002,28 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="C126">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>20.3</v>
+        <v>25.6</v>
       </c>
       <c r="F126">
-        <v>13.3</v>
+        <v>20.1</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H126">
-        <v>21.75</v>
+        <v>24.52</v>
       </c>
       <c r="J126">
-        <v>0.6881350874900818</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>73</v>
-      </c>
-      <c r="C127">
-        <v>68</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127">
-        <v>35.4</v>
-      </c>
-      <c r="F127">
-        <v>21</v>
-      </c>
-      <c r="G127">
-        <v>4</v>
-      </c>
-      <c r="H127">
-        <v>25.52</v>
-      </c>
-      <c r="J127">
-        <v>0.7841087579727173</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>144</v>
-      </c>
-      <c r="C128">
-        <v>62</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128">
-        <v>28.2</v>
-      </c>
-      <c r="F128">
-        <v>19.8</v>
-      </c>
-      <c r="G128">
-        <v>3</v>
-      </c>
-      <c r="H128">
-        <v>24.71</v>
-      </c>
-      <c r="J128">
-        <v>0.7502864599227905</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>85</v>
-      </c>
-      <c r="C129">
-        <v>69</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129">
-        <v>31.1</v>
-      </c>
-      <c r="F129">
-        <v>20.1</v>
-      </c>
-      <c r="G129">
-        <v>4</v>
-      </c>
-      <c r="H129">
-        <v>25.71</v>
-      </c>
-      <c r="J129">
-        <v>0.6593565940856934</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>107</v>
-      </c>
-      <c r="C130">
-        <v>69</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>26.7</v>
-      </c>
-      <c r="F130">
-        <v>15.6</v>
-      </c>
-      <c r="G130">
-        <v>3</v>
-      </c>
-      <c r="H130">
-        <v>23.32</v>
-      </c>
-      <c r="J130">
-        <v>0.6436421275138855</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>184</v>
-      </c>
-      <c r="C131">
-        <v>56</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-      <c r="E131">
-        <v>29.1</v>
-      </c>
-      <c r="F131">
-        <v>22.6</v>
-      </c>
-      <c r="G131">
-        <v>4</v>
-      </c>
-      <c r="H131">
-        <v>25.81</v>
-      </c>
-      <c r="J131">
-        <v>0.7561231255531311</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>207</v>
-      </c>
-      <c r="C132">
-        <v>63</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <v>36.3</v>
-      </c>
-      <c r="F132">
-        <v>34.8</v>
-      </c>
-      <c r="G132">
-        <v>5</v>
-      </c>
-      <c r="H132">
-        <v>32.51</v>
-      </c>
-      <c r="J132">
-        <v>0.6428216099739075</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>139</v>
-      </c>
-      <c r="C133">
-        <v>40</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133">
-        <v>37.4</v>
-      </c>
-      <c r="F133">
-        <v>25.6</v>
-      </c>
-      <c r="G133">
-        <v>4</v>
-      </c>
-      <c r="H133">
-        <v>28.38</v>
-      </c>
-      <c r="J133">
-        <v>0.6204475164413452</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>98</v>
-      </c>
-      <c r="C134">
-        <v>61</v>
-      </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-      <c r="E134">
-        <v>23.6</v>
-      </c>
-      <c r="F134">
-        <v>15.8</v>
-      </c>
-      <c r="G134">
-        <v>3</v>
-      </c>
-      <c r="H134">
-        <v>23.32</v>
-      </c>
-      <c r="J134">
-        <v>0.7534666061401367</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>53</v>
-      </c>
-      <c r="C135">
-        <v>57</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-      <c r="E135">
-        <v>20</v>
-      </c>
-      <c r="F135">
-        <v>10</v>
-      </c>
-      <c r="G135">
-        <v>2</v>
-      </c>
-      <c r="H135">
-        <v>19.39</v>
-      </c>
-      <c r="J135">
-        <v>0.702690064907074</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>40</v>
-      </c>
-      <c r="C136">
-        <v>27</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>24.1</v>
-      </c>
-      <c r="F136">
-        <v>13.1</v>
-      </c>
-      <c r="G136">
-        <v>2</v>
-      </c>
-      <c r="H136">
-        <v>19.67</v>
-      </c>
-      <c r="J136">
-        <v>0.2931652069091797</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>62</v>
-      </c>
-      <c r="C137">
-        <v>60</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>31.1</v>
-      </c>
-      <c r="F137">
-        <v>15.4</v>
-      </c>
-      <c r="G137">
-        <v>2</v>
-      </c>
-      <c r="H137">
-        <v>20.88</v>
-      </c>
-      <c r="J137">
-        <v>0.6826584339141846</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>88</v>
-      </c>
-      <c r="C138">
-        <v>39</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>34.3</v>
-      </c>
-      <c r="F138">
-        <v>22.3</v>
-      </c>
-      <c r="G138">
-        <v>4</v>
-      </c>
-      <c r="H138">
-        <v>26.61</v>
-      </c>
-      <c r="J138">
-        <v>0.4298931360244751</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>71</v>
-      </c>
-      <c r="C139">
-        <v>74</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>32.8</v>
-      </c>
-      <c r="F139">
-        <v>18.5</v>
-      </c>
-      <c r="G139">
-        <v>3</v>
-      </c>
-      <c r="H139">
-        <v>23.28</v>
-      </c>
-      <c r="J139">
-        <v>0.641899049282074</v>
+        <v>0.004063594155013561</v>
       </c>
     </row>
   </sheetData>
